--- a/app/data/static/params/mozzarella_old.xlsx
+++ b/app/data/static/params/mozzarella_old.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="211">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -130,15 +130,12 @@
     <t xml:space="preserve">Н0000094735</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
+    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, т/ф</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000095251</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, т/ф</t>
-  </si>
-  <si>
     <t xml:space="preserve">Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
   </si>
   <si>
@@ -166,46 +163,484 @@
     <t xml:space="preserve">Н0000094274</t>
   </si>
   <si>
+    <t xml:space="preserve">Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фермерская коллекция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бонджорно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВкусВилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro Chef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САККАРДО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000089109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маркет Перекресток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3503984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умалат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000081879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красная птица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Красная птица", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для бутербродов "Aventino", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45%, 0,46 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande" (Метро), 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метро</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ручная работа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000092242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000091561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande" (ОК), 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни без лактозы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг Х5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, кг, пл/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эсперсон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фиор Ди Латте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000087862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orecchio Oro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каждый день</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2/0,36 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">малый Комет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чильеджина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 0,37 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 1,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Зеленая линия", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,8 кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки 15 гр Эсперсен 45%, 3,5 кг, пл/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла, 45%, 3,6 кг, пл/л (палочки 7,5 г)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 1,2  кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,8 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 1/1,8 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Свежий ряд", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свежий ряд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000087861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Foodfest", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodfest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099256</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла (палочки), 45%, кг, пл/л</t>
   </si>
   <si>
-    <t xml:space="preserve">Эсперсон</t>
-  </si>
-  <si>
     <t xml:space="preserve">Н0000088954</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фиор Ди Латте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45 %, 0,46 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САККАРДО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094725</t>
+    <t xml:space="preserve">Моцарелла для пиццы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваш выбор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327193010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327192013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "ВкусВилл", 50%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099329</t>
   </si>
   <si>
     <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у</t>
@@ -214,451 +649,10 @@
     <t xml:space="preserve">Н0000079372</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фермерская коллекция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000093998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бонджорно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВкусВилл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metro Chef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000089109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Умалат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маркет Перекресток</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3503984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000090330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000081879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000093444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Красная птица</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Красная птица", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для бутербродов "Aventino", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, в/у</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45%, 0,46 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande" (Метро), 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Метро</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ручная работа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000092242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000091561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande" (ОК), 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000093316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни без лактозы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг Х5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, кг, пл/л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000093343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ваш выбор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327193010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000090381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000087862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор ди Латте "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orecchio Oro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каждый день</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла сердечки в воде "Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2/0,36 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">малый Комет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чильеджина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000087861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327192013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000090380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 0,37 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 1,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Зеленая линия", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,8 кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла, 45%, 3,5 кг, пл/л (палочки 15 г)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла, 45%, 3,6 кг, пл/л (палочки 7,5 г)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 1,2  кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,8 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 1/1,8 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Свежий ряд", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свежий ряд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Foodfest", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foodfest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000099256</t>
+    <t xml:space="preserve">Моцарелла "Pretto", 45%, 0,15 кг, ф/п (кубики)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00006397</t>
   </si>
 </sst>
 </file>
@@ -668,7 +662,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -694,15 +688,38 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -754,7 +771,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -763,7 +780,27 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,6 +813,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF4C4C4C"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -784,18 +881,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB79"/>
+  <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L79" activeCellId="0" sqref="L79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J77" activeCellId="0" sqref="J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -952,7 +1052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1026,7 +1126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -1040,43 +1140,43 @@
         <v>28</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="V4" s="0" t="n">
         <v>40</v>
@@ -1097,15 +1197,15 @@
         <v>5</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2.7</v>
@@ -1114,22 +1214,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="I5" s="0" t="n">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
@@ -1144,13 +1244,13 @@
         <v>28</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>1020</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="V5" s="0" t="n">
         <v>40</v>
@@ -1171,63 +1271,63 @@
         <v>5</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" s="0" t="n">
-        <v>3000</v>
+        <v>280</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="R6" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="R6" s="0" t="n">
-        <v>360</v>
+      <c r="U6" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>20</v>
@@ -1245,15 +1345,15 @@
         <v>5</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2.7</v>
@@ -1262,43 +1362,43 @@
         <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="V7" s="0" t="n">
         <v>40</v>
@@ -1319,21 +1419,21 @@
         <v>5</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>29</v>
@@ -1342,19 +1442,19 @@
         <v>30</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>850</v>
@@ -1375,90 +1475,87 @@
         <v>120</v>
       </c>
       <c r="V8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="W8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="C9" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="I9" s="0" t="n">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>50</v>
+        <v>1020</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="0" t="n">
         <v>15</v>
@@ -1473,9 +1570,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>57</v>
@@ -1493,19 +1590,19 @@
         <v>30</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>850</v>
@@ -1520,10 +1617,10 @@
         <v>34</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V10" s="0" t="n">
         <v>40</v>
@@ -1547,9 +1644,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>59</v>
@@ -1567,19 +1664,19 @@
         <v>30</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>850</v>
@@ -1591,13 +1688,13 @@
         <v>33</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>728</v>
+        <v>518</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V11" s="0" t="n">
         <v>40</v>
@@ -1621,9 +1718,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>62</v>
@@ -1641,66 +1738,66 @@
         <v>30</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M12" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>728</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB12" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2.7</v>
@@ -1718,16 +1815,16 @@
         <v>31</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>850</v>
@@ -1739,13 +1836,13 @@
         <v>33</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>1020</v>
+        <v>728</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V13" s="0" t="n">
         <v>40</v>
@@ -1766,15 +1863,15 @@
         <v>5</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2.7</v>
@@ -1783,31 +1880,31 @@
         <v>28</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>33</v>
@@ -1840,15 +1937,15 @@
         <v>5</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2.7</v>
@@ -1857,16 +1954,16 @@
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>280</v>
@@ -1914,15 +2011,15 @@
         <v>5</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2.7</v>
@@ -1931,16 +2028,16 @@
         <v>28</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>120</v>
@@ -1949,25 +2046,25 @@
         <v>10</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="V16" s="0" t="n">
         <v>40</v>
@@ -1988,15 +2085,15 @@
         <v>5</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2.7</v>
@@ -2005,31 +2102,31 @@
         <v>28</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>33</v>
@@ -2038,10 +2135,10 @@
         <v>34</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="V17" s="0" t="n">
         <v>40</v>
@@ -2062,15 +2159,15 @@
         <v>5</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2.7</v>
@@ -2079,31 +2176,31 @@
         <v>28</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>33</v>
@@ -2112,10 +2209,10 @@
         <v>34</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V18" s="0" t="n">
         <v>40</v>
@@ -2136,15 +2233,15 @@
         <v>5</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2.7</v>
@@ -2159,19 +2256,19 @@
         <v>30</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>850</v>
@@ -2183,13 +2280,13 @@
         <v>33</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>728</v>
+        <v>518</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V19" s="0" t="n">
         <v>40</v>
@@ -2210,15 +2307,15 @@
         <v>5</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2.7</v>
@@ -2227,31 +2324,31 @@
         <v>28</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>33</v>
@@ -2287,9 +2384,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>87</v>
@@ -2301,31 +2398,31 @@
         <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="I21" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>45</v>
+        <v>1020</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>33</v>
@@ -2337,7 +2434,7 @@
         <v>1020</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V21" s="0" t="n">
         <v>40</v>
@@ -2361,9 +2458,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>89</v>
@@ -2375,25 +2472,25 @@
         <v>28</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>850</v>
@@ -2432,15 +2529,15 @@
         <v>5</v>
       </c>
       <c r="AB22" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2.7</v>
@@ -2449,43 +2546,43 @@
         <v>28</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>120</v>
+        <v>460</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q23" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="R23" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="R23" s="0" t="n">
-        <v>288</v>
+      <c r="U23" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V23" s="0" t="n">
         <v>40</v>
@@ -2506,69 +2603,69 @@
         <v>5</v>
       </c>
       <c r="AB23" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M24" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="V24" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N24" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U24" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="V24" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W24" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y24" s="0" t="n">
         <v>15</v>
@@ -2580,15 +2677,15 @@
         <v>5</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2.7</v>
@@ -2597,25 +2694,25 @@
         <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>850</v>
@@ -2630,10 +2727,10 @@
         <v>34</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V25" s="0" t="n">
         <v>40</v>
@@ -2654,69 +2751,69 @@
         <v>5</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="I26" s="0" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q26" s="0" t="n">
-        <v>1020</v>
+        <v>67</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>288</v>
+        <v>600</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V26" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W26" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y26" s="0" t="n">
         <v>15</v>
@@ -2728,69 +2825,69 @@
         <v>5</v>
       </c>
       <c r="AB26" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="I27" s="0" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M27" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="V27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U27" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V27" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W27" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y27" s="0" t="n">
         <v>15</v>
@@ -2802,69 +2899,69 @@
         <v>5</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="I28" s="0" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>518</v>
+        <v>600</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W28" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y28" s="0" t="n">
         <v>15</v>
@@ -2876,48 +2973,48 @@
         <v>5</v>
       </c>
       <c r="AB28" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>33</v>
@@ -2929,10 +3026,10 @@
         <v>1020</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V29" s="0" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="W29" s="0" t="n">
         <v>20</v>
@@ -2950,69 +3047,69 @@
         <v>5</v>
       </c>
       <c r="AB29" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>1020</v>
+        <v>120</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>1020</v>
+        <v>600</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W30" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y30" s="0" t="n">
         <v>15</v>
@@ -3024,15 +3121,15 @@
         <v>5</v>
       </c>
       <c r="AB30" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2.7</v>
@@ -3041,43 +3138,43 @@
         <v>28</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>1200</v>
+        <v>7.5</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U31" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V31" s="0" t="n">
         <v>40</v>
@@ -3098,69 +3195,72 @@
         <v>5</v>
       </c>
       <c r="AB31" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="I32" s="0" t="n">
-        <v>1200</v>
+        <v>125</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>1200</v>
+        <v>125</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U32" s="0" t="n">
-        <v>120</v>
+        <v>960</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y32" s="0" t="n">
         <v>15</v>
@@ -3172,69 +3272,72 @@
         <v>5</v>
       </c>
       <c r="AB32" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>460</v>
+        <v>125</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>460</v>
+        <v>125</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U33" s="0" t="n">
-        <v>120</v>
+        <v>1000</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="W33" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y33" s="0" t="n">
         <v>15</v>
@@ -3246,18 +3349,18 @@
         <v>5</v>
       </c>
       <c r="AB33" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>28</v>
@@ -3266,46 +3369,49 @@
         <v>114</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>700</v>
+        <v>125</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>700</v>
+        <v>125</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U34" s="0" t="n">
-        <v>120</v>
+        <v>960</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V34" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W34" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X34" s="0" t="n">
         <v>35</v>
@@ -3320,69 +3426,72 @@
         <v>5</v>
       </c>
       <c r="AB34" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M35" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T35" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N35" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R35" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U35" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="V35" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W35" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y35" s="0" t="n">
         <v>15</v>
@@ -3394,18 +3503,18 @@
         <v>5</v>
       </c>
       <c r="AB35" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>28</v>
@@ -3414,46 +3523,49 @@
         <v>114</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H36" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="0" t="n">
-        <v>260</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>260</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="N36" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O36" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="R36" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U36" s="0" t="n">
-        <v>120</v>
+        <v>1200</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V36" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W36" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X36" s="0" t="n">
         <v>35</v>
@@ -3468,18 +3580,18 @@
         <v>5</v>
       </c>
       <c r="AB36" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>28</v>
@@ -3488,46 +3600,49 @@
         <v>114</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H37" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="N37" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="R37" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U37" s="0" t="n">
-        <v>120</v>
+        <v>1200</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W37" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X37" s="0" t="n">
         <v>35</v>
@@ -3542,18 +3657,18 @@
         <v>5</v>
       </c>
       <c r="AB37" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>28</v>
@@ -3562,46 +3677,49 @@
         <v>114</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H38" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="N38" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="R38" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U38" s="0" t="n">
-        <v>120</v>
+        <v>960</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V38" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X38" s="0" t="n">
         <v>35</v>
@@ -3616,69 +3734,72 @@
         <v>5</v>
       </c>
       <c r="AB38" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M39" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T39" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N39" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O39" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R39" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U39" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="V39" s="0" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W39" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y39" s="0" t="n">
         <v>15</v>
@@ -3690,18 +3811,18 @@
         <v>5</v>
       </c>
       <c r="AB39" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>28</v>
@@ -3710,46 +3831,49 @@
         <v>114</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U40" s="0" t="n">
-        <v>120</v>
+        <v>960</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X40" s="0" t="n">
         <v>35</v>
@@ -3764,70 +3888,73 @@
         <v>5</v>
       </c>
       <c r="AB40" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="F41" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X41" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G41" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="N41" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O41" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="R41" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U41" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W41" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X41" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="Y41" s="0" t="n">
         <v>15</v>
       </c>
@@ -3838,33 +3965,33 @@
         <v>5</v>
       </c>
       <c r="AB41" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>125</v>
@@ -3875,20 +4002,20 @@
       <c r="K42" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L42" s="2" t="n">
+      <c r="L42" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="S42" s="0" t="n">
         <v>25</v>
@@ -3897,10 +4024,10 @@
         <v>50</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X42" s="0" t="n">
         <v>30</v>
@@ -3915,57 +4042,57 @@
         <v>5</v>
       </c>
       <c r="AB42" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="I43" s="0" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L43" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="L43" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="S43" s="0" t="n">
         <v>25</v>
@@ -3974,10 +4101,10 @@
         <v>50</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W43" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X43" s="0" t="n">
         <v>30</v>
@@ -3992,33 +4119,33 @@
         <v>5</v>
       </c>
       <c r="AB43" s="0" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>125</v>
@@ -4027,9 +4154,9 @@
         <v>8</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L44" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L44" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M44" s="0" t="n">
@@ -4039,25 +4166,25 @@
         <v>33</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>960</v>
+        <v>876</v>
       </c>
       <c r="S44" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T44" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V44" s="0" t="n">
         <v>35</v>
       </c>
       <c r="W44" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X44" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y44" s="0" t="n">
         <v>15</v>
@@ -4069,44 +4196,44 @@
         <v>5</v>
       </c>
       <c r="AB44" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L45" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L45" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M45" s="0" t="n">
@@ -4116,25 +4243,25 @@
         <v>33</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>960</v>
+        <v>876</v>
       </c>
       <c r="S45" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T45" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V45" s="0" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="W45" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X45" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y45" s="0" t="n">
         <v>15</v>
@@ -4146,15 +4273,15 @@
         <v>5</v>
       </c>
       <c r="AB45" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>3.3</v>
@@ -4163,46 +4290,46 @@
         <v>28</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L46" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N46" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="S46" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T46" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V46" s="0" t="n">
         <v>35</v>
@@ -4223,15 +4350,15 @@
         <v>5</v>
       </c>
       <c r="AB46" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>3.3</v>
@@ -4240,46 +4367,46 @@
         <v>28</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L47" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L47" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="S47" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T47" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V47" s="0" t="n">
         <v>35</v>
@@ -4300,15 +4427,15 @@
         <v>5</v>
       </c>
       <c r="AB47" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>3.3</v>
@@ -4317,46 +4444,46 @@
         <v>28</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>12</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L48" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L48" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N48" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R48" s="0" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="S48" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T48" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V48" s="0" t="n">
         <v>35</v>
@@ -4377,44 +4504,44 @@
         <v>5</v>
       </c>
       <c r="AB48" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L49" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M49" s="0" t="n">
@@ -4424,25 +4551,25 @@
         <v>33</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R49" s="0" t="n">
-        <v>960</v>
+        <v>876</v>
       </c>
       <c r="S49" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T49" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V49" s="0" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="W49" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X49" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y49" s="0" t="n">
         <v>15</v>
@@ -4454,15 +4581,15 @@
         <v>5</v>
       </c>
       <c r="AB49" s="0" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>3.3</v>
@@ -4471,16 +4598,16 @@
         <v>28</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>100</v>
@@ -4489,9 +4616,9 @@
         <v>8</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L50" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M50" s="0" t="n">
@@ -4501,16 +4628,16 @@
         <v>33</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="S50" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T50" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V50" s="0" t="n">
         <v>35</v>
@@ -4531,15 +4658,15 @@
         <v>5</v>
       </c>
       <c r="AB50" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>3.3</v>
@@ -4548,46 +4675,46 @@
         <v>28</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>12</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L51" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L51" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N51" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>960</v>
+        <v>876</v>
       </c>
       <c r="S51" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T51" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V51" s="0" t="n">
         <v>35</v>
@@ -4608,72 +4735,69 @@
         <v>5</v>
       </c>
       <c r="AB51" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L52" s="2" t="n">
-        <v>1050</v>
+        <v>370</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N52" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S52" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T52" s="0" t="n">
-        <v>50</v>
+        <v>1020</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W52" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X52" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y52" s="0" t="n">
         <v>15</v>
@@ -4685,72 +4809,69 @@
         <v>5</v>
       </c>
       <c r="AB52" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>125</v>
+        <v>1200</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L53" s="2" t="n">
-        <v>1050</v>
+        <v>1200</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N53" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S53" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T53" s="0" t="n">
-        <v>50</v>
+        <v>1020</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V53" s="0" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W53" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X53" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y53" s="0" t="n">
         <v>15</v>
@@ -4762,15 +4883,15 @@
         <v>5</v>
       </c>
       <c r="AB53" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>3.3</v>
@@ -4779,16 +4900,16 @@
         <v>28</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>125</v>
@@ -4797,9 +4918,9 @@
         <v>8</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="L54" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L54" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M54" s="0" t="n">
@@ -4809,25 +4930,25 @@
         <v>33</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="S54" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T54" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="V54" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W54" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X54" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y54" s="0" t="n">
         <v>15</v>
@@ -4839,44 +4960,44 @@
         <v>5</v>
       </c>
       <c r="AB54" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="L55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L55" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M55" s="0" t="n">
@@ -4886,25 +5007,25 @@
         <v>33</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="R55" s="0" t="n">
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="S55" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T55" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V55" s="0" t="n">
         <v>35</v>
       </c>
       <c r="W55" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X55" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y55" s="0" t="n">
         <v>15</v>
@@ -4916,72 +5037,69 @@
         <v>5</v>
       </c>
       <c r="AB55" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L56" s="2" t="n">
-        <v>1050</v>
+        <v>280</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N56" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R56" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S56" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T56" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W56" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X56" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y56" s="0" t="n">
         <v>15</v>
@@ -4993,72 +5111,69 @@
         <v>5</v>
       </c>
       <c r="AB56" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>125</v>
+        <v>700</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L57" s="2" t="n">
-        <v>1050</v>
+        <v>700</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="N57" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="R57" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S57" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T57" s="0" t="n">
-        <v>20</v>
+        <v>600</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V57" s="0" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="W57" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X57" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y57" s="0" t="n">
         <v>15</v>
@@ -5070,72 +5185,69 @@
         <v>5</v>
       </c>
       <c r="AB57" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>169</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L58" s="2" t="n">
-        <v>1050</v>
+        <v>15</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N58" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S58" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T58" s="0" t="n">
-        <v>20</v>
+        <v>420</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="V58" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W58" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X58" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y58" s="0" t="n">
         <v>15</v>
@@ -5147,72 +5259,69 @@
         <v>5</v>
       </c>
       <c r="AB58" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>100</v>
+        <v>3600</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L59" s="2" t="n">
-        <v>1050</v>
+        <v>7.5</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N59" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R59" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S59" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T59" s="0" t="n">
-        <v>20</v>
+        <v>432</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="V59" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W59" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X59" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y59" s="0" t="n">
         <v>15</v>
@@ -5224,72 +5333,69 @@
         <v>5</v>
       </c>
       <c r="AB59" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>125</v>
+        <v>1200</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L60" s="2" t="n">
-        <v>1050</v>
+        <v>1200</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N60" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R60" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S60" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T60" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V60" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W60" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X60" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y60" s="0" t="n">
         <v>15</v>
@@ -5300,16 +5406,16 @@
       <c r="AA60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB60" s="0" t="s">
-        <v>174</v>
+      <c r="AB60" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>3.3</v>
@@ -5318,27 +5424,27 @@
         <v>28</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L61" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="L61" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M61" s="0" t="n">
@@ -5348,16 +5454,19 @@
         <v>33</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>420</v>
       </c>
       <c r="R61" s="0" t="n">
-        <v>720</v>
+        <v>420</v>
       </c>
       <c r="S61" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T61" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V61" s="0" t="n">
         <v>35</v>
@@ -5378,36 +5487,36 @@
         <v>5</v>
       </c>
       <c r="AB61" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>125</v>
+        <v>1000</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>8</v>
@@ -5415,7 +5524,7 @@
       <c r="K62" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L62" s="2" t="n">
+      <c r="L62" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M62" s="0" t="n">
@@ -5425,10 +5534,13 @@
         <v>33</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>702</v>
       </c>
       <c r="R62" s="0" t="n">
-        <v>876</v>
+        <v>702</v>
       </c>
       <c r="S62" s="0" t="n">
         <v>25</v>
@@ -5437,13 +5549,13 @@
         <v>20</v>
       </c>
       <c r="V62" s="0" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W62" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X62" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y62" s="0" t="n">
         <v>15</v>
@@ -5455,72 +5567,72 @@
         <v>5</v>
       </c>
       <c r="AB62" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L63" s="2" t="n">
-        <v>1050</v>
+        <v>280</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M63" s="0" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N63" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="R63" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S63" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T63" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V63" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W63" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X63" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y63" s="0" t="n">
         <v>15</v>
@@ -5532,15 +5644,15 @@
         <v>5</v>
       </c>
       <c r="AB63" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>3.3</v>
@@ -5549,37 +5661,37 @@
         <v>28</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L64" s="2" t="n">
+      <c r="L64" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M64" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N64" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R64" s="0" t="n">
         <v>720</v>
@@ -5609,72 +5721,72 @@
         <v>5</v>
       </c>
       <c r="AB64" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L65" s="2" t="n">
-        <v>1050</v>
+        <v>280</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M65" s="0" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N65" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="R65" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S65" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T65" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V65" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W65" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X65" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y65" s="0" t="n">
         <v>15</v>
@@ -5686,15 +5798,15 @@
         <v>5</v>
       </c>
       <c r="AB65" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>185</v>
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2.7</v>
@@ -5709,19 +5821,19 @@
         <v>30</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>370</v>
+        <v>30</v>
       </c>
       <c r="L66" s="0" t="n">
         <v>850</v>
@@ -5736,10 +5848,10 @@
         <v>34</v>
       </c>
       <c r="R66" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U66" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V66" s="0" t="n">
         <v>40</v>
@@ -5759,16 +5871,16 @@
       <c r="AA66" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB66" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB66" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2.7</v>
@@ -5785,17 +5897,17 @@
       <c r="G67" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H67" s="0" t="s">
-        <v>81</v>
+      <c r="H67" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="L67" s="0" t="n">
         <v>850</v>
@@ -5813,7 +5925,7 @@
         <v>1020</v>
       </c>
       <c r="U67" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V67" s="0" t="n">
         <v>40</v>
@@ -5833,16 +5945,16 @@
       <c r="AA67" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB67" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB67" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>189</v>
+        <v>68</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3.3</v>
@@ -5851,19 +5963,19 @@
         <v>28</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H68" s="0" t="s">
-        <v>81</v>
+      <c r="H68" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>8</v>
@@ -5871,7 +5983,7 @@
       <c r="K68" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="L68" s="2" t="n">
+      <c r="L68" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M68" s="0" t="n">
@@ -5881,7 +5993,7 @@
         <v>33</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R68" s="0" t="n">
         <v>960</v>
@@ -5910,16 +6022,16 @@
       <c r="AA68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB68" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB68" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>191</v>
+        <v>69</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>3.3</v>
@@ -5928,19 +6040,19 @@
         <v>28</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H69" s="0" t="s">
-        <v>81</v>
+      <c r="H69" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>8</v>
@@ -5948,7 +6060,7 @@
       <c r="K69" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L69" s="2" t="n">
+      <c r="L69" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M69" s="0" t="n">
@@ -5958,10 +6070,10 @@
         <v>33</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R69" s="0" t="n">
-        <v>1020</v>
+        <v>720</v>
       </c>
       <c r="S69" s="0" t="n">
         <v>25</v>
@@ -5987,16 +6099,16 @@
       <c r="AA69" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB69" s="0" t="s">
-        <v>192</v>
+      <c r="AB69" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>193</v>
+        <v>70</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2.7</v>
@@ -6005,31 +6117,31 @@
         <v>28</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="L70" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M70" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N70" s="0" t="s">
         <v>33</v>
@@ -6061,70 +6173,70 @@
       <c r="AA70" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB70" s="0" t="s">
-        <v>194</v>
+      <c r="AB70" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>195</v>
+        <v>71</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>115</v>
+        <v>40</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="L71" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M71" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N71" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="R71" s="0" t="n">
-        <v>600</v>
+        <v>518</v>
       </c>
       <c r="U71" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V71" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W71" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X71" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y71" s="0" t="n">
         <v>15</v>
@@ -6135,16 +6247,16 @@
       <c r="AA71" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB71" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB71" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>197</v>
+        <v>72</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2.7</v>
@@ -6153,127 +6265,130 @@
         <v>28</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>3500</v>
+        <v>120</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L72" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M72" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="U72" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V72" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W72" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X72" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y72" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z72" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V73" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="N72" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O72" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="R72" s="0" t="n">
-        <v>420</v>
-      </c>
-      <c r="U72" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V72" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W72" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X72" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y72" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z72" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA72" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB72" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" s="0" t="s">
+      <c r="W73" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="X73" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G73" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>3600</v>
-      </c>
-      <c r="J73" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K73" s="0" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L73" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M73" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="N73" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O73" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="R73" s="0" t="n">
-        <v>432</v>
-      </c>
-      <c r="U73" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V73" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W73" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X73" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="Y73" s="0" t="n">
         <v>15</v>
       </c>
@@ -6283,16 +6398,16 @@
       <c r="AA73" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB73" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB73" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>201</v>
+        <v>74</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2.7</v>
@@ -6301,40 +6416,40 @@
         <v>28</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G74" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H74" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="I74" s="0" t="n">
-        <v>1200</v>
+        <v>460</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>1200</v>
+        <v>460</v>
       </c>
       <c r="L74" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M74" s="0" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N74" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="R74" s="0" t="n">
-        <v>1020</v>
+        <v>728</v>
       </c>
       <c r="U74" s="0" t="n">
         <v>120</v>
@@ -6357,76 +6472,70 @@
       <c r="AA74" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB74" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB74" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>202</v>
+        <v>75</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L75" s="2" t="n">
-        <v>1050</v>
+        <v>150</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M75" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N75" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q75" s="0" t="n">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="R75" s="0" t="n">
-        <v>420</v>
-      </c>
-      <c r="S75" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T75" s="0" t="n">
-        <v>50</v>
+        <v>1020</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="V75" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W75" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X75" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y75" s="0" t="n">
         <v>15</v>
@@ -6437,324 +6546,18 @@
       <c r="AA75" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB75" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J76" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K76" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L76" s="2" t="n">
-        <v>1050</v>
-      </c>
-      <c r="M76" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N76" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O76" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q76" s="0" t="n">
-        <v>702</v>
-      </c>
-      <c r="R76" s="0" t="n">
-        <v>702</v>
-      </c>
-      <c r="S76" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T76" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V76" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W76" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X76" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y76" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z76" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA76" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB76" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>280</v>
-      </c>
-      <c r="J77" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K77" s="0" t="n">
-        <v>280</v>
-      </c>
-      <c r="L77" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M77" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="N77" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O77" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q77" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="R77" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U77" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V77" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W77" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X77" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y77" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z77" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA77" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB77" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I78" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J78" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K78" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L78" s="2" t="n">
-        <v>1050</v>
-      </c>
-      <c r="M78" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N78" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O78" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R78" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S78" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T78" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V78" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W78" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X78" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y78" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z78" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA78" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB78" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="0" t="s">
+      <c r="AB75" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C79" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="I79" s="0" t="n">
-        <v>280</v>
-      </c>
-      <c r="J79" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K79" s="0" t="n">
-        <v>280</v>
-      </c>
-      <c r="L79" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M79" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="N79" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O79" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q79" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="R79" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U79" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V79" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W79" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X79" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y79" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z79" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA79" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB79" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/app/data/static/params/mozzarella_old.xlsx
+++ b/app/data/static/params/mozzarella_old.xlsx
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Н0000094735</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, т/ф</t>
+    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, т/ф (8 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000095251</t>
@@ -361,7 +361,7 @@
     <t xml:space="preserve">Н0000093343</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Фиор Ди Латте</t>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">Н0000094736</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000094698</t>
@@ -460,7 +460,7 @@
     <t xml:space="preserve">Н0000094737</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла Чильеджина в воде без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000095553</t>
@@ -544,7 +544,7 @@
     <t xml:space="preserve">Н0000098310</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла, 45%, 3,6 кг, пл/л (палочки 7,5 г)</t>
+    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, 3,6 кг, пл/л</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000098311</t>
@@ -556,13 +556,13 @@
     <t xml:space="preserve">Н0000098463</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,8 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 1/1,6 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000098464</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 1/1,8 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла Чильеджина в воде "Pretto", 45%, 1/1,8 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000098465</t>
@@ -604,7 +604,7 @@
     <t xml:space="preserve">Н0000099327</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Ваш выбор", 45%, 0,1/0,18 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Ваш выбор</t>
@@ -613,7 +613,7 @@
     <t xml:space="preserve">327193010  </t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Ваш выбор", 45%, 0,1/0,18 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">327192013</t>
@@ -722,12 +722,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -771,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -780,7 +786,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -792,15 +802,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -883,180 +905,197 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J77" activeCellId="0" sqref="J77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="9" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="29" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.09"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="N2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V2" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="0" t="s">
+      <c r="V2" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -1104,8 +1143,8 @@
       <c r="U3" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V3" s="0" t="n">
-        <v>40</v>
+      <c r="V3" s="5" t="n">
+        <v>60</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>20</v>
@@ -1126,4139 +1165,4337 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="0" t="s">
+      <c r="N4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="3" t="n">
         <v>288</v>
       </c>
-      <c r="V4" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="0" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="0" t="s">
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="3" t="n">
         <v>360</v>
       </c>
-      <c r="V5" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="0" t="s">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="0" t="s">
+      <c r="N6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="0" t="s">
+      <c r="W6" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="0" t="s">
+      <c r="N7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="0" t="s">
+      <c r="V7" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="0" t="s">
+      <c r="N8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="0" t="s">
+      <c r="V8" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="0" t="s">
+      <c r="N9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V9" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="0" t="s">
+      <c r="V9" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" s="0" t="n">
+      <c r="J10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="0" t="s">
+      <c r="N10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V10" s="0" t="n">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="0" t="s">
+      <c r="L11" s="3" t="n">
+        <v>850</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="n">
+        <v>518</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V11" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB11" s="0" t="s">
+      <c r="W11" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="J12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="N12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="0" t="s">
+      <c r="N12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB12" s="0" t="s">
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W12" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X12" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="J13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N13" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="0" t="s">
+      <c r="N13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3" t="n">
         <v>728</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V13" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="0" t="s">
+      <c r="V13" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W13" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X13" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="0" t="s">
+      <c r="N14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V14" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="0" t="s">
+      <c r="V14" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W14" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="0" t="s">
+      <c r="N15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W15" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K16" s="0" t="n">
+      <c r="J16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="0" t="s">
+      <c r="N16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="3" t="n">
         <v>288</v>
       </c>
-      <c r="V16" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="0" t="s">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N17" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="0" t="s">
+      <c r="N17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V17" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="0" t="s">
+      <c r="V17" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="0" t="s">
+      <c r="N18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V18" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="0" t="s">
+      <c r="V18" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="D19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" s="0" t="n">
+      <c r="J19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="0" t="s">
+      <c r="N19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB19" s="0" t="s">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V19" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W19" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="0" t="s">
+      <c r="N20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V20" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z20" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB20" s="0" t="s">
+      <c r="V20" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W20" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="N21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="0" t="s">
+      <c r="N21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V21" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="0" t="s">
+      <c r="V21" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N22" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="0" t="s">
+      <c r="N22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V22" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="0" t="s">
+      <c r="V22" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N23" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="0" t="s">
+      <c r="N23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V23" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB23" s="0" t="s">
+      <c r="V23" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W23" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X23" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA23" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="N24" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="0" t="s">
+      <c r="N24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="W24" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="X24" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Y24" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="0" t="s">
+      <c r="Y24" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="D25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K25" s="0" t="n">
+      <c r="J25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N25" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="0" t="s">
+      <c r="N25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V25" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y25" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB25" s="0" t="s">
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V25" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W25" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X25" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA25" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="D26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="3" t="n">
         <v>260</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="3" t="n">
         <v>260</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="N26" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="0" t="s">
+      <c r="N26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="V26" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="W26" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="X26" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Y26" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z26" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="0" t="s">
+      <c r="Y26" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="N27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="0" t="s">
+      <c r="N27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V27" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="W27" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="X27" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Y27" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z27" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB27" s="0" t="s">
+      <c r="Y27" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="N28" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="0" t="s">
+      <c r="N28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="V28" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="W28" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="X28" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Y28" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z28" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB28" s="0" t="s">
+      <c r="Y28" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA28" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="D29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="0" t="s">
+      <c r="N29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="V29" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W29" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X29" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y29" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z29" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB29" s="0" t="s">
+      <c r="W29" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X29" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y29" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="D30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="N30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="0" t="s">
+      <c r="N30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="V30" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="W30" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="X30" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Y30" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z30" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB30" s="0" t="s">
+      <c r="Y30" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA30" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB30" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="D31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="0" t="s">
+      <c r="G31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="3" t="n">
         <v>7.5</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="N31" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" s="0" t="s">
+      <c r="N31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U31" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V31" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W31" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X31" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y31" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z31" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB31" s="0" t="s">
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V31" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W31" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X31" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y31" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA31" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB31" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="L32" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="M32" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N32" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O32" s="0" t="s">
+      <c r="N32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="S32" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="T32" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V32" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W32" s="0" t="n">
+      <c r="U32" s="3"/>
+      <c r="V32" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W32" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="X32" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y32" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z32" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA32" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="0" t="s">
+      <c r="Y32" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA32" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="D33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="L33" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="M33" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="N33" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O33" s="0" t="s">
+      <c r="N33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="S33" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T33" s="0" t="n">
+      <c r="T33" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V33" s="0" t="n">
+      <c r="U33" s="3"/>
+      <c r="V33" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W33" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X33" s="0" t="n">
+      <c r="W33" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X33" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y33" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z33" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB33" s="0" t="s">
+      <c r="Y33" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA33" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="D34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M34" s="0" t="n">
+      <c r="M34" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N34" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O34" s="0" t="s">
+      <c r="N34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R34" s="0" t="n">
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S34" s="0" t="n">
+      <c r="S34" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T34" s="0" t="n">
+      <c r="T34" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V34" s="0" t="n">
+      <c r="U34" s="3"/>
+      <c r="V34" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W34" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X34" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W34" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X34" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y34" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z34" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA34" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB34" s="0" t="s">
+      <c r="Y34" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA34" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB34" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="L35" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M35" s="0" t="n">
+      <c r="M35" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N35" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" s="0" t="s">
+      <c r="N35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R35" s="0" t="n">
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S35" s="0" t="n">
+      <c r="S35" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T35" s="0" t="n">
+      <c r="T35" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V35" s="0" t="n">
+      <c r="U35" s="3"/>
+      <c r="V35" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W35" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X35" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W35" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X35" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y35" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z35" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA35" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB35" s="0" t="s">
+      <c r="Y35" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA35" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="0" t="s">
+      <c r="D36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="L36" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="M36" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="N36" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O36" s="0" t="s">
+      <c r="N36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R36" s="0" t="n">
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="S36" s="0" t="n">
+      <c r="S36" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T36" s="0" t="n">
+      <c r="T36" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V36" s="0" t="n">
+      <c r="U36" s="3"/>
+      <c r="V36" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W36" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X36" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W36" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X36" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y36" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z36" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB36" s="0" t="s">
+      <c r="Y36" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA36" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB36" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="0" t="s">
+      <c r="D37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="L37" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M37" s="0" t="n">
+      <c r="M37" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="N37" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O37" s="0" t="s">
+      <c r="N37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R37" s="0" t="n">
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="S37" s="0" t="n">
+      <c r="S37" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T37" s="0" t="n">
+      <c r="T37" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V37" s="0" t="n">
+      <c r="U37" s="3"/>
+      <c r="V37" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W37" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X37" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W37" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X37" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y37" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z37" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB37" s="0" t="s">
+      <c r="Y37" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA37" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB37" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="0" t="s">
+      <c r="D38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="L38" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M38" s="0" t="n">
+      <c r="M38" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N38" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="0" t="s">
+      <c r="N38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R38" s="0" t="n">
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S38" s="0" t="n">
+      <c r="S38" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T38" s="0" t="n">
+      <c r="T38" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V38" s="0" t="n">
+      <c r="U38" s="3"/>
+      <c r="V38" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W38" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X38" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W38" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X38" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y38" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z38" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA38" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB38" s="0" t="s">
+      <c r="Y38" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA38" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB38" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="0" t="s">
+      <c r="D39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="L39" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M39" s="0" t="n">
+      <c r="M39" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N39" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O39" s="0" t="s">
+      <c r="N39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R39" s="0" t="n">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S39" s="0" t="n">
+      <c r="S39" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T39" s="0" t="n">
+      <c r="T39" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V39" s="0" t="n">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W39" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X39" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W39" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X39" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y39" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z39" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA39" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB39" s="0" t="s">
+      <c r="Y39" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA39" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB39" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="0" t="s">
+      <c r="D40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="L40" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M40" s="0" t="n">
+      <c r="M40" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N40" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O40" s="0" t="s">
+      <c r="N40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R40" s="0" t="n">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S40" s="0" t="n">
+      <c r="S40" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T40" s="0" t="n">
+      <c r="T40" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V40" s="0" t="n">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W40" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X40" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W40" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X40" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y40" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z40" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA40" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB40" s="0" t="s">
+      <c r="Y40" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA40" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB40" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="0" t="s">
+      <c r="D41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="I41" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="K41" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="L41" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M41" s="0" t="n">
+      <c r="M41" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N41" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O41" s="0" t="s">
+      <c r="N41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R41" s="0" t="n">
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="S41" s="0" t="n">
+      <c r="S41" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T41" s="0" t="n">
+      <c r="T41" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V41" s="0" t="n">
+      <c r="U41" s="3"/>
+      <c r="V41" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W41" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X41" s="0" t="n">
+      <c r="W41" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X41" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y41" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z41" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA41" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="0" t="s">
+      <c r="Y41" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA41" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="0" t="s">
+      <c r="D42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="L42" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M42" s="0" t="n">
+      <c r="M42" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="N42" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O42" s="0" t="s">
+      <c r="N42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R42" s="0" t="n">
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="S42" s="0" t="n">
+      <c r="S42" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T42" s="0" t="n">
+      <c r="T42" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V42" s="0" t="n">
+      <c r="U42" s="3"/>
+      <c r="V42" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W42" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X42" s="0" t="n">
+      <c r="W42" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X42" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y42" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z42" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA42" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB42" s="0" t="s">
+      <c r="Y42" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z42" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA42" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="0" t="s">
+      <c r="D43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="K43" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="L43" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M43" s="0" t="n">
+      <c r="M43" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N43" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O43" s="0" t="s">
+      <c r="N43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="R43" s="0" t="n">
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3" t="n">
         <v>840</v>
       </c>
-      <c r="S43" s="0" t="n">
+      <c r="S43" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T43" s="0" t="n">
+      <c r="T43" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V43" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W43" s="0" t="n">
+      <c r="U43" s="3"/>
+      <c r="V43" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W43" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="X43" s="0" t="n">
+      <c r="X43" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y43" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z43" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA43" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="0" t="s">
+      <c r="Y43" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z43" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA43" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="0" t="s">
+      <c r="D44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="L44" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M44" s="0" t="n">
+      <c r="M44" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N44" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O44" s="0" t="s">
+      <c r="N44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R44" s="0" t="n">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3" t="n">
         <v>876</v>
       </c>
-      <c r="S44" s="0" t="n">
+      <c r="S44" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V44" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W44" s="0" t="n">
+      <c r="T44" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W44" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="X44" s="0" t="n">
+      <c r="X44" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y44" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z44" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA44" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="0" t="s">
+      <c r="Y44" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z44" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA44" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="0" t="s">
+      <c r="D45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="L45" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M45" s="0" t="n">
+      <c r="M45" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N45" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O45" s="0" t="s">
+      <c r="N45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R45" s="0" t="n">
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3" t="n">
         <v>876</v>
       </c>
-      <c r="S45" s="0" t="n">
+      <c r="S45" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T45" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V45" s="0" t="n">
+      <c r="T45" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W45" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X45" s="0" t="n">
+      <c r="W45" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X45" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y45" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z45" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA45" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB45" s="0" t="s">
+      <c r="Y45" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z45" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA45" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="0" t="s">
+      <c r="D46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="L46" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M46" s="0" t="n">
+      <c r="M46" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N46" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O46" s="0" t="s">
+      <c r="N46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R46" s="0" t="n">
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="S46" s="0" t="n">
+      <c r="S46" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T46" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V46" s="0" t="n">
+      <c r="T46" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W46" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X46" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W46" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X46" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y46" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z46" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA46" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="0" t="s">
+      <c r="Y46" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z46" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA46" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="0" t="s">
+      <c r="D47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I47" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="K47" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="L47" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M47" s="0" t="n">
+      <c r="M47" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N47" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O47" s="0" t="s">
+      <c r="N47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R47" s="0" t="n">
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="S47" s="0" t="n">
+      <c r="S47" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T47" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V47" s="0" t="n">
+      <c r="T47" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W47" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X47" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W47" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X47" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y47" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z47" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA47" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="0" t="s">
+      <c r="Y47" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z47" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA47" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="0" t="s">
+      <c r="D48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K48" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L48" s="0" t="n">
+      <c r="L48" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M48" s="0" t="n">
+      <c r="M48" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N48" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O48" s="0" t="s">
+      <c r="N48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R48" s="0" t="n">
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="S48" s="0" t="n">
+      <c r="S48" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T48" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V48" s="0" t="n">
+      <c r="T48" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W48" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X48" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W48" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X48" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y48" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z48" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="0" t="s">
+      <c r="Y48" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z48" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA48" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="0" t="s">
+      <c r="D49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="I49" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="J49" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="K49" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L49" s="0" t="n">
+      <c r="L49" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M49" s="0" t="n">
+      <c r="M49" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N49" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O49" s="0" t="s">
+      <c r="N49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R49" s="0" t="n">
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3" t="n">
         <v>876</v>
       </c>
-      <c r="S49" s="0" t="n">
+      <c r="S49" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T49" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V49" s="0" t="n">
+      <c r="T49" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W49" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X49" s="0" t="n">
+      <c r="W49" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X49" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y49" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z49" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="0" t="s">
+      <c r="Y49" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z49" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA49" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="0" t="s">
+      <c r="D50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="I50" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="J50" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="K50" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L50" s="0" t="n">
+      <c r="L50" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M50" s="0" t="n">
+      <c r="M50" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N50" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O50" s="0" t="s">
+      <c r="N50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R50" s="0" t="n">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="S50" s="0" t="n">
+      <c r="S50" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T50" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V50" s="0" t="n">
+      <c r="T50" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W50" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X50" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W50" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X50" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y50" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z50" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA50" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB50" s="0" t="s">
+      <c r="Y50" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z50" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA50" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB50" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="0" t="s">
+      <c r="D51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="I51" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J51" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K51" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="L51" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M51" s="0" t="n">
+      <c r="M51" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="N51" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O51" s="0" t="s">
+      <c r="N51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R51" s="0" t="n">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3" t="n">
         <v>876</v>
       </c>
-      <c r="S51" s="0" t="n">
+      <c r="S51" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T51" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V51" s="0" t="n">
+      <c r="T51" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W51" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X51" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W51" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X51" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y51" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z51" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA51" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB51" s="0" t="s">
+      <c r="Y51" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z51" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA51" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB51" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="0" t="s">
+      <c r="D52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="I52" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="K52" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="L52" s="0" t="n">
+      <c r="L52" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M52" s="0" t="n">
+      <c r="M52" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N52" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O52" s="0" t="s">
+      <c r="N52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R52" s="0" t="n">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U52" s="0" t="n">
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V52" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W52" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X52" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y52" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z52" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA52" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="0" t="s">
+      <c r="V52" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W52" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X52" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y52" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z52" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA52" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="D53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="I53" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J53" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="L53" s="0" t="n">
+      <c r="L53" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M53" s="0" t="n">
+      <c r="M53" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N53" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O53" s="0" t="s">
+      <c r="N53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R53" s="0" t="n">
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U53" s="0" t="n">
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V53" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W53" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X53" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y53" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z53" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA53" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB53" s="0" t="s">
+      <c r="V53" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W53" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X53" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y53" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z53" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA53" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB53" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="0" t="s">
+      <c r="D54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I54" s="0" t="n">
+      <c r="I54" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J54" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K54" s="0" t="n">
+      <c r="J54" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K54" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L54" s="0" t="n">
+      <c r="L54" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M54" s="0" t="n">
+      <c r="M54" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N54" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O54" s="0" t="s">
+      <c r="N54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R54" s="0" t="n">
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S54" s="0" t="n">
+      <c r="S54" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T54" s="0" t="n">
+      <c r="T54" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V54" s="0" t="n">
+      <c r="U54" s="3"/>
+      <c r="V54" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W54" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X54" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W54" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X54" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y54" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z54" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA54" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB54" s="0" t="s">
+      <c r="Y54" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z54" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA54" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="0" t="s">
+      <c r="D55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I55" s="0" t="n">
+      <c r="I55" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="J55" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K55" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K55" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L55" s="0" t="n">
+      <c r="L55" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M55" s="0" t="n">
+      <c r="M55" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N55" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O55" s="0" t="s">
+      <c r="N55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R55" s="0" t="n">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="S55" s="0" t="n">
+      <c r="S55" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T55" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V55" s="0" t="n">
+      <c r="T55" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W55" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X55" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W55" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X55" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y55" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z55" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA55" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB55" s="0" t="s">
+      <c r="Y55" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z55" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA55" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB55" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="0" t="s">
+      <c r="D56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G56" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H56" s="0" t="s">
+      <c r="G56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="I56" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="J56" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="K56" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L56" s="0" t="n">
+      <c r="L56" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M56" s="0" t="n">
+      <c r="M56" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N56" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O56" s="0" t="s">
+      <c r="N56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O56" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R56" s="0" t="n">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U56" s="0" t="n">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V56" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W56" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X56" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y56" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z56" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA56" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB56" s="0" t="s">
+      <c r="V56" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W56" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X56" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y56" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z56" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA56" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB56" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="0" t="s">
+      <c r="D57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I57" s="0" t="n">
+      <c r="I57" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="J57" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="K57" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L57" s="0" t="n">
+      <c r="L57" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M57" s="0" t="n">
+      <c r="M57" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="N57" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O57" s="0" t="s">
+      <c r="N57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R57" s="0" t="n">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="U57" s="0" t="n">
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V57" s="0" t="n">
+      <c r="V57" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="W57" s="0" t="n">
+      <c r="W57" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="X57" s="0" t="n">
+      <c r="X57" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Y57" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z57" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA57" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB57" s="0" t="s">
+      <c r="Y57" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z57" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA57" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="0" t="s">
+      <c r="D58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G58" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H58" s="0" t="s">
+      <c r="G58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I58" s="0" t="n">
+      <c r="I58" s="3" t="n">
         <v>3500</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="J58" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K58" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L58" s="0" t="n">
+      <c r="K58" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L58" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M58" s="0" t="n">
+      <c r="M58" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="N58" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O58" s="0" t="s">
+      <c r="N58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R58" s="0" t="n">
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3" t="n">
         <v>420</v>
       </c>
-      <c r="U58" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V58" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W58" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X58" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y58" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z58" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA58" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="0" t="s">
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V58" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W58" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X58" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y58" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z58" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA58" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5266,147 +5503,155 @@
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="0" t="s">
+      <c r="D59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G59" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" s="0" t="s">
+      <c r="G59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I59" s="0" t="n">
+      <c r="I59" s="3" t="n">
         <v>3600</v>
       </c>
-      <c r="J59" s="0" t="n">
+      <c r="J59" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="K59" s="3" t="n">
         <v>7.5</v>
       </c>
-      <c r="L59" s="0" t="n">
+      <c r="L59" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M59" s="0" t="n">
+      <c r="M59" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="N59" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O59" s="0" t="s">
+      <c r="N59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R59" s="0" t="n">
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3" t="n">
         <v>432</v>
       </c>
-      <c r="U59" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V59" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W59" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X59" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y59" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z59" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA59" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB59" s="0" t="s">
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V59" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W59" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X59" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z59" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA59" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="0" t="s">
+      <c r="D60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="H60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I60" s="0" t="n">
+      <c r="I60" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="J60" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="L60" s="0" t="n">
+      <c r="L60" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M60" s="0" t="n">
+      <c r="M60" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N60" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O60" s="0" t="s">
+      <c r="N60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R60" s="0" t="n">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U60" s="0" t="n">
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V60" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W60" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X60" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y60" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z60" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA60" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="3" t="s">
+      <c r="V60" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W60" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X60" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y60" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z60" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA60" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5414,390 +5659,403 @@
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="0" t="s">
+      <c r="D61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="H61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I61" s="0" t="n">
+      <c r="I61" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="J61" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="K61" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L61" s="0" t="n">
+      <c r="L61" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M61" s="0" t="n">
+      <c r="M61" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N61" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O61" s="0" t="s">
+      <c r="N61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q61" s="0" t="n">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3" t="n">
         <v>420</v>
       </c>
-      <c r="R61" s="0" t="n">
+      <c r="R61" s="3" t="n">
         <v>420</v>
       </c>
-      <c r="S61" s="0" t="n">
+      <c r="S61" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T61" s="0" t="n">
+      <c r="T61" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V61" s="0" t="n">
+      <c r="U61" s="3"/>
+      <c r="V61" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W61" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X61" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W61" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X61" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y61" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z61" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA61" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB61" s="0" t="s">
+      <c r="Y61" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z61" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA61" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB61" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" s="0" t="s">
+      <c r="D62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="H62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I62" s="0" t="n">
+      <c r="I62" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="J62" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K62" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L62" s="0" t="n">
+      <c r="L62" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M62" s="0" t="n">
+      <c r="M62" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N62" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O62" s="0" t="s">
+      <c r="N62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q62" s="0" t="n">
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3" t="n">
         <v>702</v>
       </c>
-      <c r="R62" s="0" t="n">
+      <c r="R62" s="3" t="n">
         <v>702</v>
       </c>
-      <c r="S62" s="0" t="n">
+      <c r="S62" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T62" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V62" s="0" t="n">
+      <c r="T62" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W62" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X62" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W62" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X62" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y62" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z62" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA62" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="0" t="s">
+      <c r="Y62" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z62" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA62" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="0" t="s">
+      <c r="D63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H63" s="0" t="s">
+      <c r="G63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I63" s="0" t="n">
+      <c r="I63" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="J63" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="K63" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L63" s="0" t="n">
+      <c r="L63" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M63" s="0" t="n">
+      <c r="M63" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N63" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O63" s="0" t="s">
+      <c r="N63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q63" s="0" t="n">
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="R63" s="0" t="n">
+      <c r="R63" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U63" s="0" t="n">
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V63" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W63" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X63" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y63" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z63" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA63" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB63" s="0" t="s">
+      <c r="V63" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W63" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X63" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y63" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z63" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA63" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB63" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" s="0" t="s">
+      <c r="D64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="H64" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I64" s="0" t="n">
+      <c r="I64" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J64" s="0" t="n">
+      <c r="J64" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="K64" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L64" s="0" t="n">
+      <c r="L64" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M64" s="0" t="n">
+      <c r="M64" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N64" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O64" s="0" t="s">
+      <c r="N64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O64" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R64" s="0" t="n">
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="S64" s="0" t="n">
+      <c r="S64" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T64" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V64" s="0" t="n">
+      <c r="T64" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W64" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X64" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W64" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X64" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y64" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z64" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA64" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB64" s="0" t="s">
+      <c r="Y64" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z64" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA64" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB64" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="0" t="s">
+      <c r="D65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G65" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H65" s="0" t="s">
+      <c r="G65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I65" s="0" t="n">
+      <c r="I65" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="J65" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="K65" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L65" s="0" t="n">
+      <c r="L65" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M65" s="0" t="n">
+      <c r="M65" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N65" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O65" s="0" t="s">
+      <c r="N65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q65" s="0" t="n">
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="R65" s="0" t="n">
+      <c r="R65" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U65" s="0" t="n">
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V65" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W65" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X65" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y65" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z65" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA65" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB65" s="0" t="s">
+      <c r="V65" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W65" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X65" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z65" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA65" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB65" s="3" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5805,147 +6063,155 @@
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" s="0" t="s">
+      <c r="D66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="H66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="I66" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J66" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K66" s="0" t="n">
+      <c r="J66" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K66" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L66" s="0" t="n">
+      <c r="L66" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M66" s="0" t="n">
+      <c r="M66" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N66" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O66" s="0" t="s">
+      <c r="N66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R66" s="0" t="n">
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U66" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V66" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W66" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X66" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y66" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z66" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA66" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB66" s="5" t="s">
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V66" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W66" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X66" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y66" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z66" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA66" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="0" t="s">
+      <c r="D67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I67" s="0" t="n">
+      <c r="I67" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="J67" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K67" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L67" s="0" t="n">
+      <c r="L67" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M67" s="0" t="n">
+      <c r="M67" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N67" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O67" s="0" t="s">
+      <c r="N67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R67" s="0" t="n">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U67" s="0" t="n">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V67" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W67" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X67" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y67" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z67" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA67" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB67" s="5" t="s">
+      <c r="V67" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W67" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X67" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z67" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA67" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB67" s="8" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5953,76 +6219,79 @@
       <c r="A68" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="0" t="s">
+      <c r="D68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I68" s="0" t="n">
+      <c r="I68" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J68" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K68" s="0" t="n">
+      <c r="J68" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K68" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L68" s="0" t="n">
+      <c r="L68" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M68" s="0" t="n">
+      <c r="M68" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N68" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O68" s="0" t="s">
+      <c r="N68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O68" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R68" s="0" t="n">
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S68" s="0" t="n">
+      <c r="S68" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T68" s="0" t="n">
+      <c r="T68" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V68" s="0" t="n">
+      <c r="U68" s="3"/>
+      <c r="V68" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W68" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X68" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W68" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X68" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y68" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z68" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA68" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB68" s="5" t="s">
+      <c r="Y68" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z68" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA68" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB68" s="8" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6030,449 +6299,471 @@
       <c r="A69" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E69" s="0" t="s">
+      <c r="D69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="I69" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J69" s="0" t="n">
+      <c r="J69" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K69" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K69" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L69" s="0" t="n">
+      <c r="L69" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M69" s="0" t="n">
+      <c r="M69" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N69" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O69" s="0" t="s">
+      <c r="N69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O69" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R69" s="0" t="n">
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="S69" s="0" t="n">
+      <c r="S69" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T69" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V69" s="0" t="n">
+      <c r="T69" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W69" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X69" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W69" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X69" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y69" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z69" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA69" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB69" s="6" t="s">
+      <c r="Y69" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z69" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA69" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB69" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70" s="0" t="s">
+      <c r="D70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H70" s="0" t="s">
+      <c r="H70" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I70" s="0" t="n">
+      <c r="I70" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="J70" s="0" t="n">
+      <c r="J70" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K70" s="0" t="n">
+      <c r="K70" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="L70" s="0" t="n">
+      <c r="L70" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M70" s="0" t="n">
+      <c r="M70" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N70" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O70" s="0" t="s">
+      <c r="N70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R70" s="0" t="n">
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U70" s="0" t="n">
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V70" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W70" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X70" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y70" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z70" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA70" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB70" s="6" t="s">
+      <c r="V70" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W70" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X70" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y70" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z70" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA70" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB70" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" s="0" t="s">
+      <c r="D71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H71" s="2" t="s">
+      <c r="G71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I71" s="0" t="n">
+      <c r="I71" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K71" s="0" t="n">
+      <c r="J71" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K71" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L71" s="0" t="n">
+      <c r="L71" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M71" s="0" t="n">
+      <c r="M71" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N71" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O71" s="0" t="s">
+      <c r="N71" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O71" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R71" s="0" t="n">
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V71" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W71" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X71" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y71" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA71" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB71" s="6" t="s">
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V71" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W71" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X71" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y71" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z71" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA71" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB71" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="0" t="s">
+      <c r="D72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="H72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I72" s="0" t="n">
+      <c r="I72" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J72" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K72" s="0" t="n">
+      <c r="J72" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L72" s="0" t="n">
+      <c r="L72" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M72" s="0" t="n">
+      <c r="M72" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N72" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O72" s="0" t="s">
+      <c r="N72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O72" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R72" s="0" t="n">
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U72" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V72" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W72" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X72" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y72" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z72" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA72" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB72" s="6" t="s">
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V72" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W72" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X72" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y72" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z72" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA72" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E73" s="0" t="s">
+      <c r="D73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I73" s="0" t="n">
+      <c r="I73" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J73" s="0" t="n">
+      <c r="J73" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K73" s="0" t="n">
+      <c r="K73" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L73" s="0" t="n">
+      <c r="L73" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M73" s="0" t="n">
+      <c r="M73" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N73" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O73" s="0" t="s">
+      <c r="N73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O73" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R73" s="0" t="n">
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S73" s="0" t="n">
+      <c r="S73" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T73" s="0" t="n">
+      <c r="T73" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V73" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W73" s="0" t="n">
+      <c r="U73" s="3"/>
+      <c r="V73" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W73" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="X73" s="0" t="n">
+      <c r="X73" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y73" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z73" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA73" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB73" s="7" t="s">
+      <c r="Y73" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z73" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA73" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB73" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E74" s="0" t="s">
+      <c r="D74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H74" s="0" t="s">
+      <c r="H74" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I74" s="0" t="n">
+      <c r="I74" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="J74" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K74" s="0" t="n">
+      <c r="K74" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="L74" s="0" t="n">
+      <c r="L74" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M74" s="0" t="n">
+      <c r="M74" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N74" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O74" s="0" t="s">
+      <c r="N74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O74" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R74" s="0" t="n">
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3" t="n">
         <v>728</v>
       </c>
-      <c r="U74" s="0" t="n">
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V74" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W74" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X74" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y74" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z74" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA74" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB74" s="3" t="s">
+      <c r="V74" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W74" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X74" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y74" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z74" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA74" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB74" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6480,79 +6771,167 @@
       <c r="A75" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" s="0" t="s">
+      <c r="D75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="H75" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I75" s="0" t="n">
+      <c r="I75" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="J75" s="0" t="n">
+      <c r="J75" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K75" s="0" t="n">
+      <c r="K75" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="L75" s="0" t="n">
+      <c r="L75" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M75" s="0" t="n">
+      <c r="M75" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N75" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O75" s="0" t="s">
+      <c r="N75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R75" s="0" t="n">
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U75" s="0" t="n">
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V75" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W75" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X75" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y75" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z75" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA75" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB75" s="3" t="s">
+      <c r="V75" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W75" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X75" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y75" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z75" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA75" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB75" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="11"/>
+      <c r="AB76" s="11"/>
+    </row>
+    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="11"/>
+      <c r="AB77" s="11"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="11"/>
+      <c r="AB78" s="11"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
